--- a/FitnessData/dynamic14/pso/analysis_2s.xlsx
+++ b/FitnessData/dynamic14/pso/analysis_2s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>236.1</v>
+        <v>207.82</v>
       </c>
       <c r="B2" t="n">
-        <v>206.88</v>
+        <v>230.99</v>
       </c>
       <c r="C2" t="n">
-        <v>215.47</v>
+        <v>219.33</v>
       </c>
       <c r="D2" t="n">
-        <v>241.61</v>
+        <v>219.24</v>
       </c>
       <c r="E2" t="n">
-        <v>213.2</v>
+        <v>226.48</v>
       </c>
       <c r="F2" t="n">
-        <v>206.69</v>
+        <v>252.07</v>
       </c>
       <c r="G2" t="n">
-        <v>229.92</v>
+        <v>226.74</v>
       </c>
       <c r="H2" t="n">
-        <v>224</v>
+        <v>215.31</v>
       </c>
       <c r="I2" t="n">
-        <v>245.7</v>
+        <v>222.41</v>
       </c>
       <c r="J2" t="n">
-        <v>217.44</v>
+        <v>217.55</v>
       </c>
       <c r="K2" t="n">
-        <v>219.29</v>
+        <v>215.79</v>
       </c>
       <c r="L2" t="n">
-        <v>228.51</v>
+        <v>212.1</v>
       </c>
       <c r="M2" t="n">
-        <v>220.58</v>
+        <v>215.63</v>
       </c>
       <c r="N2" t="n">
-        <v>254.1</v>
+        <v>241.5</v>
       </c>
       <c r="O2" t="n">
-        <v>222.43</v>
+        <v>227.45</v>
       </c>
       <c r="P2" t="n">
-        <v>248.41</v>
+        <v>213.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>225.1</v>
+        <v>208.93</v>
       </c>
       <c r="R2" t="n">
-        <v>211.4</v>
+        <v>201.37</v>
       </c>
       <c r="S2" t="n">
-        <v>208.29</v>
+        <v>202.47</v>
       </c>
       <c r="T2" t="n">
-        <v>224.34</v>
+        <v>221.89</v>
       </c>
       <c r="U2" t="n">
-        <v>206.69</v>
+        <v>201.37</v>
       </c>
       <c r="V2" t="n">
-        <v>224.973</v>
+        <v>219.9415</v>
       </c>
       <c r="W2" t="n">
-        <v>14.01901381770674</v>
+        <v>12.26079772239448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>552.59</v>
+        <v>539.66</v>
       </c>
       <c r="B3" t="n">
-        <v>535.54</v>
+        <v>468.65</v>
       </c>
       <c r="C3" t="n">
-        <v>491.14</v>
+        <v>448.68</v>
       </c>
       <c r="D3" t="n">
-        <v>494.76</v>
+        <v>446.2</v>
       </c>
       <c r="E3" t="n">
-        <v>537.99</v>
+        <v>514.86</v>
       </c>
       <c r="F3" t="n">
-        <v>537.28</v>
+        <v>451.16</v>
       </c>
       <c r="G3" t="n">
-        <v>513.62</v>
+        <v>474.18</v>
       </c>
       <c r="H3" t="n">
-        <v>531.1</v>
+        <v>465.38</v>
       </c>
       <c r="I3" t="n">
-        <v>512.7</v>
+        <v>499.22</v>
       </c>
       <c r="J3" t="n">
-        <v>490.76</v>
+        <v>472.8</v>
       </c>
       <c r="K3" t="n">
-        <v>494.92</v>
+        <v>472.4</v>
       </c>
       <c r="L3" t="n">
-        <v>528.8</v>
+        <v>470.58</v>
       </c>
       <c r="M3" t="n">
-        <v>477.86</v>
+        <v>489.55</v>
       </c>
       <c r="N3" t="n">
-        <v>495.46</v>
+        <v>473.73</v>
       </c>
       <c r="O3" t="n">
-        <v>596.91</v>
+        <v>517.73</v>
       </c>
       <c r="P3" t="n">
-        <v>496.04</v>
+        <v>495.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>523.21</v>
+        <v>469.42</v>
       </c>
       <c r="R3" t="n">
-        <v>548.88</v>
+        <v>466.18</v>
       </c>
       <c r="S3" t="n">
-        <v>516.64</v>
+        <v>528.64</v>
       </c>
       <c r="T3" t="n">
-        <v>464.12</v>
+        <v>502.15</v>
       </c>
       <c r="U3" t="n">
-        <v>464.12</v>
+        <v>446.2</v>
       </c>
       <c r="V3" t="n">
-        <v>517.016</v>
+        <v>483.3554999999998</v>
       </c>
       <c r="W3" t="n">
-        <v>30.64377852199795</v>
+        <v>26.57285169313341</v>
       </c>
     </row>
   </sheetData>
